--- a/data/out/third_teams_eu.xlsx
+++ b/data/out/third_teams_eu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>third_place_count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>top4_third_place_count</t>
         </is>
@@ -465,11 +470,14 @@
         <v>2016</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
       </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +494,9 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -497,11 +508,14 @@
         <v>2016</v>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>22</v>
       </c>
+      <c r="E4" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -513,11 +527,14 @@
         <v>2016</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -529,9 +546,12 @@
         <v>2016</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,9 +565,12 @@
         <v>2016</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -561,11 +584,14 @@
         <v>2016</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>21</v>
       </c>
+      <c r="E8" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -577,11 +603,14 @@
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>17</v>
       </c>
+      <c r="E9" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -593,9 +622,12 @@
         <v>2016</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -609,9 +641,12 @@
         <v>2016</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -625,11 +660,14 @@
         <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>39</v>
       </c>
+      <c r="E12" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,11 +679,14 @@
         <v>2021</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
       </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -657,11 +698,14 @@
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -673,11 +717,14 @@
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>39</v>
       </c>
+      <c r="E15" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -689,9 +736,12 @@
         <v>2021</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
         <v>23</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -705,9 +755,12 @@
         <v>2021</v>
       </c>
       <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
         <v>26</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -721,11 +774,14 @@
         <v>2021</v>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>34</v>
       </c>
+      <c r="E18" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -737,11 +793,14 @@
         <v>2021</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>7</v>
       </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -753,11 +812,14 @@
         <v>2021</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>25</v>
       </c>
+      <c r="E20" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -769,9 +831,12 @@
         <v>2021</v>
       </c>
       <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
         <v>9</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -785,9 +850,12 @@
         <v>2021</v>
       </c>
       <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
         <v>16</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,9 +869,12 @@
         <v>2021</v>
       </c>
       <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -817,11 +888,14 @@
         <v>2024</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>6</v>
       </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -833,11 +907,14 @@
         <v>2024</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
       </c>
+      <c r="E25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -849,11 +926,14 @@
         <v>2024</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -865,11 +945,14 @@
         <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>14</v>
       </c>
+      <c r="E27" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -881,9 +964,12 @@
         <v>2024</v>
       </c>
       <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
         <v>24</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,9 +983,12 @@
         <v>2024</v>
       </c>
       <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
         <v>17</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -913,11 +1002,14 @@
         <v>2024</v>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>22</v>
       </c>
+      <c r="E30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -929,11 +1021,14 @@
         <v>2024</v>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>18</v>
       </c>
+      <c r="E31" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -945,11 +1040,14 @@
         <v>2024</v>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>16</v>
       </c>
+      <c r="E32" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1064,9 @@
       <c r="D33" t="n">
         <v>1</v>
       </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -977,11 +1078,14 @@
         <v>2024</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -993,9 +1097,12 @@
         <v>2024</v>
       </c>
       <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
         <v>6</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1012,6 +1119,9 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
         <v>0</v>
       </c>
     </row>
